--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A927998-3970-4248-935A-D7B6C93CFB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DD33F5-FAEE-4F3D-959F-219E30CAA8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{0AC0D6E7-75E8-42AA-AD56-07999C8C3ECC}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{BDA1E1DE-358B-4CAC-9D1D-CDEB01E9D721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336F75FB-16C0-40EE-8F0A-3CFDF600677C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B3FEF9-D507-4295-9E38-85CECAED0364}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>23.490722673480054</v>
+        <v>1.8518884218661633</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DD33F5-FAEE-4F3D-959F-219E30CAA8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F80CFB-A038-4359-A1C8-20EFF641DAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{BDA1E1DE-358B-4CAC-9D1D-CDEB01E9D721}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{4346500B-D33C-483A-9512-88D12240E486}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B3FEF9-D507-4295-9E38-85CECAED0364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4942BA-27D2-496B-8EE8-23259E0BEEE0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.8518884218661633</v>
+        <v>1.0258839897668564</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F80CFB-A038-4359-A1C8-20EFF641DAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAB1935-4DC9-401C-9B0A-821AE52F80AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{4346500B-D33C-483A-9512-88D12240E486}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{F2C8DB41-4D62-406E-9BF5-E611197EF2C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4942BA-27D2-496B-8EE8-23259E0BEEE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A24AC4C-C7DA-4FCC-B8D6-59122D6183B5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
